--- a/lesson3/lesson3.xlsx
+++ b/lesson3/lesson3.xlsx
@@ -221,10 +221,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -516,11 +516,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-55613632"/>
-        <c:axId val="-55613088"/>
+        <c:axId val="-219026336"/>
+        <c:axId val="-219031776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-55613632"/>
+        <c:axId val="-219026336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -577,12 +577,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-55613088"/>
+        <c:crossAx val="-219031776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-55613088"/>
+        <c:axId val="-219031776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,7 +639,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-55613632"/>
+        <c:crossAx val="-219026336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -949,11 +949,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-55611456"/>
-        <c:axId val="-228433696"/>
+        <c:axId val="-219033952"/>
+        <c:axId val="-219033408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-55611456"/>
+        <c:axId val="-219033952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -986,12 +986,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-228433696"/>
+        <c:crossAx val="-219033408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-228433696"/>
+        <c:axId val="-219033408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1020,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-55611456"/>
+        <c:crossAx val="-219033952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1439,11 +1439,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-34967088"/>
-        <c:axId val="-34970896"/>
+        <c:axId val="-219032864"/>
+        <c:axId val="-219030688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-34967088"/>
+        <c:axId val="-219032864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,12 +1499,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-34970896"/>
+        <c:crossAx val="-219030688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-34970896"/>
+        <c:axId val="-219030688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,7 +1561,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-34967088"/>
+        <c:crossAx val="-219032864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2314,11 +2314,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-34965456"/>
-        <c:axId val="-34964912"/>
+        <c:axId val="-219027968"/>
+        <c:axId val="-219030144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-34965456"/>
+        <c:axId val="-219027968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,12 +2375,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-34964912"/>
+        <c:crossAx val="-219030144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-34964912"/>
+        <c:axId val="-219030144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2437,7 +2437,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-34965456"/>
+        <c:crossAx val="-219027968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3190,11 +3190,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-34963824"/>
-        <c:axId val="-34961648"/>
+        <c:axId val="-219025792"/>
+        <c:axId val="-219029600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-34963824"/>
+        <c:axId val="-219025792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3251,12 +3251,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-34961648"/>
+        <c:crossAx val="-219029600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-34961648"/>
+        <c:axId val="-219029600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3313,7 +3313,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-34963824"/>
+        <c:crossAx val="-219025792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3377,7 +3377,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32334711286089246"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3631,11 +3638,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-34971984"/>
-        <c:axId val="-34964368"/>
+        <c:axId val="-402791888"/>
+        <c:axId val="-402801680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-34971984"/>
+        <c:axId val="-402791888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3692,12 +3699,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-34964368"/>
+        <c:crossAx val="-402801680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-34964368"/>
+        <c:axId val="-402801680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3754,7 +3761,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-34971984"/>
+        <c:crossAx val="-402791888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4092,11 +4099,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-34963280"/>
-        <c:axId val="-34972528"/>
+        <c:axId val="-455598496"/>
+        <c:axId val="-82993552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-34963280"/>
+        <c:axId val="-455598496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4153,12 +4160,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-34972528"/>
+        <c:crossAx val="-82993552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-34972528"/>
+        <c:axId val="-82993552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4215,7 +4222,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-34963280"/>
+        <c:crossAx val="-455598496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7754,16 +7761,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>717177</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>12326</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>369795</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>77320</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>750794</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>66114</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8080,8 +8087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R73" sqref="R73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8221,11 +8228,11 @@
       <c r="N8">
         <v>31</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="M9">
@@ -8291,12 +8298,12 @@
       </c>
     </row>
     <row r="16" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
     </row>
     <row r="17" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K17">
@@ -8492,11 +8499,11 @@
       <c r="L37" s="3">
         <v>0.96740809959923413</v>
       </c>
-      <c r="M37" s="8" t="s">
+      <c r="M37" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G38">
@@ -8511,11 +8518,11 @@
       <c r="L38" s="3">
         <v>0.93587843117020164</v>
       </c>
-      <c r="M38" s="8" t="s">
+      <c r="M38" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
     </row>
     <row r="39" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G39">
@@ -8530,11 +8537,11 @@
       <c r="L39" s="3">
         <v>0.92946627428722173</v>
       </c>
-      <c r="M39" s="8" t="s">
+      <c r="M39" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
     </row>
     <row r="40" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G40">
@@ -8549,11 +8556,11 @@
       <c r="L40" s="3">
         <v>2.3978255437802916</v>
       </c>
-      <c r="M40" s="8" t="s">
+      <c r="M40" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
     </row>
     <row r="41" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G41">
@@ -10266,7 +10273,7 @@
         <v>2.6297493604943156</v>
       </c>
       <c r="Q169">
-        <f t="shared" ref="Q169:Q200" si="8">NORMDIST(P169,0,1,1)</f>
+        <f t="shared" ref="Q169:Q172" si="8">NORMDIST(P169,0,1,1)</f>
         <v>0.99572760799459381</v>
       </c>
       <c r="R169">
